--- a/data/15-gene_networks_analysis/Output-Graph-Analysis_BK20161116.xlsx
+++ b/data/15-gene_networks_analysis/Output-Graph-Analysis_BK20161116.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwilli31\Documents\GRNmap\pvalue_analysis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="17235" windowHeight="12585"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="17235" windowHeight="12585" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="wt_network" sheetId="1" r:id="rId1"/>
-    <sheet name="dcin5_network" sheetId="3" r:id="rId2"/>
-    <sheet name="dgln3_network" sheetId="2" r:id="rId3"/>
-    <sheet name="dhap4_network" sheetId="4" r:id="rId4"/>
-    <sheet name="dzap1_network" sheetId="5" r:id="rId5"/>
+    <sheet name="dcin5_17-gene_network" sheetId="6" r:id="rId2"/>
+    <sheet name="dcin5_14-gene_network" sheetId="3" r:id="rId3"/>
+    <sheet name="dgln3_network" sheetId="2" r:id="rId4"/>
+    <sheet name="dhap4_network" sheetId="4" r:id="rId5"/>
+    <sheet name="dzap1_network" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="74">
   <si>
     <t>ABF1</t>
   </si>
@@ -204,13 +210,52 @@
   </si>
   <si>
     <t>Ideas:</t>
+  </si>
+  <si>
+    <t>RDS3</t>
+  </si>
+  <si>
+    <t>YNL199C</t>
+  </si>
+  <si>
+    <t>YMR043W</t>
+  </si>
+  <si>
+    <t>YIR033W</t>
+  </si>
+  <si>
+    <t>YPR094W</t>
+  </si>
+  <si>
+    <t>YHR178W</t>
+  </si>
+  <si>
+    <t>YDR146C</t>
+  </si>
+  <si>
+    <t>YBR112C</t>
+  </si>
+  <si>
+    <t>YKL062W</t>
+  </si>
+  <si>
+    <t>YBR083W</t>
+  </si>
+  <si>
+    <t>YIL036W</t>
+  </si>
+  <si>
+    <t>YGL073W</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,6 +396,60 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF336699"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFCC0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF009900"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF9933"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF9900CC"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -360,7 +459,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -407,12 +506,106 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -428,9 +621,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -464,10 +654,176 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -483,6 +839,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -531,7 +890,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -566,7 +925,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -777,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -841,372 +1200,372 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="18" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="P2" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q2" s="17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" s="19" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="18" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="19">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="19">
         <v>0.76239999999999997</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="19">
         <v>0.93610000000000004</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="19">
         <v>2.98E-2</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="19">
         <v>8.2900000000000001E-2</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="19">
         <v>6.6199999999999995E-2</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="19">
         <v>0.62970000000000004</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="19">
         <v>0.41889999999999999</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="19">
         <v>0.73070000000000002</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="19">
         <v>3.9699999999999999E-2</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="19">
         <v>0.30559999999999998</v>
       </c>
-      <c r="M3" s="20">
+      <c r="M3" s="19">
         <v>0.40970000000000001</v>
       </c>
-      <c r="N3" s="20">
+      <c r="N3" s="19">
         <v>0.67310000000000003</v>
       </c>
-      <c r="O3" s="20">
+      <c r="O3" s="19">
         <v>0.17430000000000001</v>
       </c>
-      <c r="P3" s="20">
+      <c r="P3" s="19">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="Q3" s="20">
+      <c r="Q3" s="19">
         <v>8.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="21" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:17" s="20" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="21">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="21">
         <v>0.44619999999999999</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="21">
         <v>0.70040000000000002</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="21">
         <v>0.41930000000000001</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="21">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="21">
         <v>0.61880000000000002</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="21">
         <v>0.27610000000000001</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="21">
         <v>0.54679999999999995</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="21">
         <v>0.48209999999999997</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="21">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="L4" s="22">
+      <c r="L4" s="21">
         <v>0.2208</v>
       </c>
-      <c r="M4" s="22">
+      <c r="M4" s="21">
         <v>4.9399999999999999E-2</v>
       </c>
-      <c r="N4" s="22">
+      <c r="N4" s="21">
         <v>0.4839</v>
       </c>
-      <c r="O4" s="22">
+      <c r="O4" s="21">
         <v>0.86839999999999995</v>
       </c>
-      <c r="P4" s="22">
+      <c r="P4" s="21">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="Q4" s="22">
+      <c r="Q4" s="21">
         <v>0.316</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="23" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+    <row r="5" spans="1:17" s="22" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="23">
         <v>0.1095</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="23">
         <v>0.78549999999999998</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="23">
         <v>3.4299999999999997E-2</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="23">
         <v>0.41649999999999998</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="23">
         <v>0.5202</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="23">
         <v>1.6299999999999999E-2</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="23">
         <v>0.27510000000000001</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="23">
         <v>0.60940000000000005</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="23">
         <v>7.7299999999999994E-2</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="23">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="23">
         <v>0.3427</v>
       </c>
-      <c r="M5" s="24">
+      <c r="M5" s="23">
         <v>7.51E-2</v>
       </c>
-      <c r="N5" s="24">
+      <c r="N5" s="23">
         <v>0.37969999999999998</v>
       </c>
-      <c r="O5" s="24">
+      <c r="O5" s="23">
         <v>4.3299999999999998E-2</v>
       </c>
-      <c r="P5" s="24">
+      <c r="P5" s="23">
         <v>0.21809999999999999</v>
       </c>
-      <c r="Q5" s="24">
+      <c r="Q5" s="23">
         <v>0.25030000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="25" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+    <row r="6" spans="1:17" s="24" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="25">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="25">
         <v>0.29160000000000003</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="25">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="25">
         <v>0.23050000000000001</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="25">
         <v>7.2300000000000003E-2</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="25">
         <v>1.12E-2</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="25">
         <v>0.50580000000000003</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="25">
         <v>0.51890000000000003</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="25">
         <v>0.41649999999999998</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="25">
         <v>0.4244</v>
       </c>
-      <c r="L6" s="26">
+      <c r="L6" s="25">
         <v>1.6799999999999999E-2</v>
       </c>
-      <c r="M6" s="26">
+      <c r="M6" s="25">
         <v>5.33E-2</v>
       </c>
-      <c r="N6" s="26">
+      <c r="N6" s="25">
         <v>0.61550000000000005</v>
       </c>
-      <c r="O6" s="26">
+      <c r="O6" s="25">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="P6" s="26">
+      <c r="P6" s="25">
         <v>1.17E-2</v>
       </c>
-      <c r="Q6" s="26">
+      <c r="Q6" s="25">
         <v>1.0134000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="27" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
+    <row r="7" spans="1:17" s="26" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="27">
         <v>0.59930000000000005</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="27">
         <v>0.82579999999999998</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="27">
         <v>0.99299999999999999</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="27">
         <v>0.84470000000000001</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="27">
         <v>0.76390000000000002</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="27">
         <v>0.4113</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="27">
         <v>0.91180000000000005</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="27">
         <v>0.92810000000000004</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="27">
         <v>0.92620000000000002</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="27">
         <v>0.57579999999999998</v>
       </c>
-      <c r="L7" s="28">
+      <c r="L7" s="27">
         <v>0.80210000000000004</v>
       </c>
-      <c r="M7" s="28">
+      <c r="M7" s="27">
         <v>0.83540000000000003</v>
       </c>
-      <c r="N7" s="28">
+      <c r="N7" s="27">
         <v>0.96519999999999995</v>
       </c>
-      <c r="O7" s="28">
+      <c r="O7" s="27">
         <v>0.81520000000000004</v>
       </c>
-      <c r="P7" s="28">
+      <c r="P7" s="27">
         <v>0.21970000000000001</v>
       </c>
-      <c r="Q7" s="28">
+      <c r="Q7" s="27">
         <v>0.88239999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="29" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
+    <row r="8" spans="1:17" s="28" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="29">
         <v>8.9499999999999996E-2</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="29">
         <v>4.5699999999999998E-2</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="29">
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="29">
         <v>0.16689999999999999</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="29">
         <v>0.45350000000000001</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="29">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="29">
         <v>0.52070000000000005</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="29">
         <v>0.1171</v>
       </c>
-      <c r="J8" s="30">
+      <c r="J8" s="29">
         <v>1.5699999999999999E-2</v>
       </c>
-      <c r="K8" s="30">
+      <c r="K8" s="29">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="L8" s="30">
+      <c r="L8" s="29">
         <v>8.3599999999999994E-2</v>
       </c>
-      <c r="M8" s="30">
+      <c r="M8" s="29">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="N8" s="30">
+      <c r="N8" s="29">
         <v>0.77990000000000004</v>
       </c>
-      <c r="O8" s="30">
+      <c r="O8" s="29">
         <v>6.5299999999999997E-2</v>
       </c>
-      <c r="P8" s="30">
+      <c r="P8" s="29">
         <v>0.26579999999999998</v>
       </c>
-      <c r="Q8" s="30">
+      <c r="Q8" s="29">
         <v>0.45619999999999999</v>
       </c>
     </row>
@@ -1239,18 +1598,18 @@
       <c r="H10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-    </row>
-    <row r="11" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="1">
@@ -1272,11 +1631,11 @@
         <v>8.9506884214993337E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="1">
@@ -1298,11 +1657,11 @@
         <v>4.5710095337785986E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="1">
@@ -1324,11 +1683,11 @@
         <v>1.5870960591145199E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="1">
@@ -1350,11 +1709,11 @@
         <v>0.1668526823465297</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="1">
@@ -1376,11 +1735,11 @@
         <v>0.45347930983877699</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="1">
@@ -1402,11 +1761,11 @@
         <v>2.5966862137770674E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="1">
@@ -1428,11 +1787,11 @@
         <v>0.52071115419199887</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C18" s="1">
@@ -1454,11 +1813,11 @@
         <v>0.11714483453331906</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C19" s="1">
@@ -1480,11 +1839,11 @@
         <v>1.5741522728162143E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C20" s="1">
@@ -1506,11 +1865,11 @@
         <v>1.1238296525258832E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C21" s="1">
@@ -1532,11 +1891,11 @@
         <v>8.3557084326203165E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C22" s="1">
@@ -1558,11 +1917,11 @@
         <v>2.0751052693414916E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C23" s="1">
@@ -1584,11 +1943,11 @@
         <v>0.77989454444137885</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C24" s="1">
@@ -1610,11 +1969,11 @@
         <v>6.5292475138674921E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C25" s="1">
@@ -1636,11 +1995,11 @@
         <v>0.26584607245743569</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C26" s="1">
@@ -1738,55 +2097,946 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:H25"/>
+      <selection activeCell="R2" sqref="A2:R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="P2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="47">
+        <v>0.76239999999999997</v>
+      </c>
+      <c r="C3" s="48">
+        <v>6.6199999999999995E-2</v>
+      </c>
+      <c r="D3" s="48">
+        <v>0.3306</v>
+      </c>
+      <c r="E3" s="48">
+        <v>0.41889999999999999</v>
+      </c>
+      <c r="F3" s="48">
+        <v>0.73070000000000002</v>
+      </c>
+      <c r="G3" s="48">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="H3" s="48">
+        <v>0.93540000000000001</v>
+      </c>
+      <c r="I3" s="48">
+        <v>9.9599999999999994E-2</v>
+      </c>
+      <c r="J3" s="48">
+        <v>0.30559999999999998</v>
+      </c>
+      <c r="K3" s="48">
+        <v>0.29520000000000002</v>
+      </c>
+      <c r="L3" s="48">
+        <v>0.40970000000000001</v>
+      </c>
+      <c r="M3" s="48">
+        <v>0.31290000000000001</v>
+      </c>
+      <c r="N3" s="48">
+        <v>0.67310000000000003</v>
+      </c>
+      <c r="O3" s="48">
+        <v>9.5699999999999993E-2</v>
+      </c>
+      <c r="P3" s="48">
+        <v>0.17430000000000001</v>
+      </c>
+      <c r="Q3" s="48">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="R3" s="48">
+        <v>8.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="B4" s="49">
+        <v>0.44619999999999999</v>
+      </c>
+      <c r="C4" s="37">
+        <v>0.61880000000000002</v>
+      </c>
+      <c r="D4" s="37">
+        <v>0.58760000000000001</v>
+      </c>
+      <c r="E4" s="37">
+        <v>0.54679999999999995</v>
+      </c>
+      <c r="F4" s="37">
+        <v>0.48209999999999997</v>
+      </c>
+      <c r="G4" s="37">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="H4" s="37">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="I4" s="37">
+        <v>0.30030000000000001</v>
+      </c>
+      <c r="J4" s="37">
+        <v>0.2208</v>
+      </c>
+      <c r="K4" s="37">
+        <v>0.6149</v>
+      </c>
+      <c r="L4" s="37">
+        <v>4.9399999999999999E-2</v>
+      </c>
+      <c r="M4" s="37">
+        <v>0.36919999999999997</v>
+      </c>
+      <c r="N4" s="37">
+        <v>0.4839</v>
+      </c>
+      <c r="O4" s="37">
+        <v>0.44629999999999997</v>
+      </c>
+      <c r="P4" s="37">
+        <v>0.86839999999999995</v>
+      </c>
+      <c r="Q4" s="37">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="R4" s="37">
+        <v>0.316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="B5" s="50">
+        <v>0.78549999999999998</v>
+      </c>
+      <c r="C5" s="39">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="D5" s="39">
+        <v>0.87629999999999997</v>
+      </c>
+      <c r="E5" s="39">
+        <v>0.60940000000000005</v>
+      </c>
+      <c r="F5" s="39">
+        <v>7.7299999999999994E-2</v>
+      </c>
+      <c r="G5" s="39">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="H5" s="39">
+        <v>0.86770000000000003</v>
+      </c>
+      <c r="I5" s="39">
+        <v>0.4415</v>
+      </c>
+      <c r="J5" s="39">
+        <v>0.3427</v>
+      </c>
+      <c r="K5" s="39">
+        <v>0.59670000000000001</v>
+      </c>
+      <c r="L5" s="39">
+        <v>7.51E-2</v>
+      </c>
+      <c r="M5" s="39">
+        <v>0.32040000000000002</v>
+      </c>
+      <c r="N5" s="39">
+        <v>0.37969999999999998</v>
+      </c>
+      <c r="O5" s="39">
+        <v>0.31259999999999999</v>
+      </c>
+      <c r="P5" s="39">
+        <v>4.3299999999999998E-2</v>
+      </c>
+      <c r="Q5" s="39">
+        <v>0.21809999999999999</v>
+      </c>
+      <c r="R5" s="39">
+        <v>0.25030000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="B6" s="51">
+        <v>0.29160000000000003</v>
+      </c>
+      <c r="C6" s="41">
+        <v>1.12E-2</v>
+      </c>
+      <c r="D6" s="41">
+        <v>0.12609999999999999</v>
+      </c>
+      <c r="E6" s="41">
+        <v>0.51890000000000003</v>
+      </c>
+      <c r="F6" s="41">
+        <v>0.41649999999999998</v>
+      </c>
+      <c r="G6" s="41">
+        <v>0.4244</v>
+      </c>
+      <c r="H6" s="41">
+        <v>0.1031</v>
+      </c>
+      <c r="I6" s="41">
+        <v>0.38219999999999998</v>
+      </c>
+      <c r="J6" s="41">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="K6" s="41">
+        <v>0.84689999999999999</v>
+      </c>
+      <c r="L6" s="41">
+        <v>5.33E-2</v>
+      </c>
+      <c r="M6" s="41">
+        <v>1.0193000000000001</v>
+      </c>
+      <c r="N6" s="41">
+        <v>0.61550000000000005</v>
+      </c>
+      <c r="O6" s="41">
+        <v>0.98680000000000001</v>
+      </c>
+      <c r="P6" s="41">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="Q6" s="41">
+        <v>1.17E-2</v>
+      </c>
+      <c r="R6" s="41">
+        <v>1.0134000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="B7" s="52">
+        <v>0.82579999999999998</v>
+      </c>
+      <c r="C7" s="43">
+        <v>0.4113</v>
+      </c>
+      <c r="D7" s="43">
+        <v>0.84450000000000003</v>
+      </c>
+      <c r="E7" s="43">
+        <v>0.92810000000000004</v>
+      </c>
+      <c r="F7" s="43">
+        <v>0.92620000000000002</v>
+      </c>
+      <c r="G7" s="43">
+        <v>0.57579999999999998</v>
+      </c>
+      <c r="H7" s="43">
+        <v>0.93110000000000004</v>
+      </c>
+      <c r="I7" s="43">
+        <v>0.46789999999999998</v>
+      </c>
+      <c r="J7" s="43">
+        <v>0.80210000000000004</v>
+      </c>
+      <c r="K7" s="43">
+        <v>1.0057</v>
+      </c>
+      <c r="L7" s="43">
+        <v>0.83540000000000003</v>
+      </c>
+      <c r="M7" s="43">
+        <v>0.4173</v>
+      </c>
+      <c r="N7" s="43">
+        <v>0.96519999999999995</v>
+      </c>
+      <c r="O7" s="43">
+        <v>0.51780000000000004</v>
+      </c>
+      <c r="P7" s="43">
+        <v>0.81520000000000004</v>
+      </c>
+      <c r="Q7" s="43">
+        <v>0.21970000000000001</v>
+      </c>
+      <c r="R7" s="43">
+        <v>0.88239999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>22</v>
+      </c>
+      <c r="B8" s="53">
+        <v>4.5699999999999998E-2</v>
+      </c>
+      <c r="C8" s="45">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D8" s="45">
+        <v>0.34789999999999999</v>
+      </c>
+      <c r="E8" s="45">
+        <v>0.1171</v>
+      </c>
+      <c r="F8" s="45">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="G8" s="45">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="H8" s="45">
+        <v>0.9415</v>
+      </c>
+      <c r="I8" s="45">
+        <v>0.51129999999999998</v>
+      </c>
+      <c r="J8" s="45">
+        <v>8.3599999999999994E-2</v>
+      </c>
+      <c r="K8" s="45">
+        <v>0.80269999999999997</v>
+      </c>
+      <c r="L8" s="45">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="M8" s="45">
+        <v>0.3296</v>
+      </c>
+      <c r="N8" s="45">
+        <v>0.77990000000000004</v>
+      </c>
+      <c r="O8" s="45">
+        <v>0.29749999999999999</v>
+      </c>
+      <c r="P8" s="45">
+        <v>6.5299999999999997E-2</v>
+      </c>
+      <c r="Q8" s="45">
+        <v>0.26579999999999998</v>
+      </c>
+      <c r="R8" s="45">
+        <v>0.45619999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.762384490029694</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.44624975588118598</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.78551996118716705</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.29160072506103601</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0.82577386681059695</v>
+      </c>
+      <c r="H11" s="11">
+        <v>4.5710095337786E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1">
+        <v>6.6225124959576706E-2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.61881514010194805</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1.6347989883004101E-2</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1.1178235493982801E-2</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0.41128551861353002</v>
+      </c>
+      <c r="H12" s="11">
+        <v>2.5966862137770701E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.33061324554751997</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.58761063110676703</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.876273721691745</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.12610118972802201</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0.84451617033304205</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0.34787221257796602</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.41886387925431101</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.54683519144140802</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.60936795919082498</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.51888455220311103</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0.92811381976317897</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0.117144834533319</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.73074475229926095</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.482119508817688</v>
+      </c>
+      <c r="E15" s="5">
+        <v>7.7299330333445299E-2</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.41648763304756098</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0.92618166088133702</v>
+      </c>
+      <c r="H15" s="11">
+        <v>1.5741522728162101E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3.9736164584284001E-2</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2.23753114222145E-3</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2.4759724199063201E-3</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.42442038054964198</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0.57583799773840905</v>
+      </c>
+      <c r="H16" s="11">
+        <v>1.1238296525258799E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.93544061609455698</v>
+      </c>
+      <c r="D17" s="3">
+        <v>9.3041646985444496E-2</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.86765083167356505</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.103131155558812</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0.93107028189860797</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0.94148592414781596</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="1">
+        <v>9.9636080901766705E-2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.3002812201176</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.44154795272863001</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.38224544954334799</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0.467855983303965</v>
+      </c>
+      <c r="H18" s="11">
+        <v>0.51129685475720899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.30555896896170998</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.220796800536256</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.34273266373509897</v>
+      </c>
+      <c r="F19" s="7">
+        <v>1.6849469393969401E-2</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0.80207673397527102</v>
+      </c>
+      <c r="H19" s="11">
+        <v>8.3557084326203193E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.29522146810641497</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.61490992041478099</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.59667395032842496</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.84690519652235496</v>
+      </c>
+      <c r="G20" s="9">
+        <v>1.0056803967588599</v>
+      </c>
+      <c r="H20" s="11">
+        <v>0.80272494014182105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.40967747091093998</v>
+      </c>
+      <c r="D21" s="3">
+        <v>4.93615335741312E-2</v>
+      </c>
+      <c r="E21" s="5">
+        <v>7.5060611423136706E-2</v>
+      </c>
+      <c r="F21" s="7">
+        <v>5.3349459021998002E-2</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0.83537027035042999</v>
+      </c>
+      <c r="H21" s="11">
+        <v>2.0751052693414899E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.312866167848105</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.36919882166698498</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0.32044779172975002</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1.01926877470356</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0.41730594570108798</v>
+      </c>
+      <c r="H22" s="11">
+        <v>0.32964773522541801</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.673063017606508</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.48391674975244903</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.37967438937929698</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.61551986182630103</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0.96518223885221099</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0.77989454444137896</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="1">
+        <v>9.5712795892028399E-2</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.44634237725270698</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0.31255665386579601</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.98678976939878205</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0.517815470814041</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0.297478016852251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.174295602147962</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.86844583111990603</v>
+      </c>
+      <c r="E25" s="5">
+        <v>4.3268390080787603E-2</v>
+      </c>
+      <c r="F25" s="7">
+        <v>8.3521584494051695E-3</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0.81524617305381997</v>
+      </c>
+      <c r="H25" s="11">
+        <v>6.5292475138674894E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="1">
+        <v>4.0424970068182499E-3</v>
+      </c>
+      <c r="D26" s="3">
+        <v>5.7965913592618802E-2</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0.218104991549528</v>
+      </c>
+      <c r="F26" s="7">
+        <v>1.17388410353965E-2</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0.21974386864794401</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0.26584607245743602</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="1">
+        <v>8.8957362296602296E-3</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.31603437363464698</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0.250267714639267</v>
+      </c>
+      <c r="F27" s="7">
+        <v>1.01343777505961</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0.88243598341370999</v>
+      </c>
+      <c r="H27" s="11">
+        <v>0.45617091532496501</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1795,252 +3045,789 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:H24"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="13.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" customWidth="1"/>
+    <col min="5" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="35">
+        <v>6.6199999999999995E-2</v>
+      </c>
+      <c r="C3" s="35">
+        <v>0.3306</v>
+      </c>
+      <c r="D3" s="35">
+        <v>0.41889999999999999</v>
+      </c>
+      <c r="E3" s="35">
+        <v>0.73070000000000002</v>
+      </c>
+      <c r="F3" s="35">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="G3" s="35">
+        <v>9.9599999999999994E-2</v>
+      </c>
+      <c r="H3" s="35">
+        <v>0.30559999999999998</v>
+      </c>
+      <c r="I3" s="35">
+        <v>0.29520000000000002</v>
+      </c>
+      <c r="J3" s="35">
+        <v>0.40970000000000001</v>
+      </c>
+      <c r="K3" s="35">
+        <v>0.31290000000000001</v>
+      </c>
+      <c r="L3" s="35">
+        <v>0.67310000000000003</v>
+      </c>
+      <c r="M3" s="35">
+        <v>9.5699999999999993E-2</v>
+      </c>
+      <c r="N3" s="35">
+        <v>0.17430000000000001</v>
+      </c>
+      <c r="O3" s="36">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="B4" s="37">
+        <v>0.61880000000000002</v>
+      </c>
+      <c r="C4" s="37">
+        <v>0.58760000000000001</v>
+      </c>
+      <c r="D4" s="37">
+        <v>0.54679999999999995</v>
+      </c>
+      <c r="E4" s="37">
+        <v>0.48209999999999997</v>
+      </c>
+      <c r="F4" s="37">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="G4" s="37">
+        <v>0.30030000000000001</v>
+      </c>
+      <c r="H4" s="37">
+        <v>0.2208</v>
+      </c>
+      <c r="I4" s="37">
+        <v>0.6149</v>
+      </c>
+      <c r="J4" s="37">
+        <v>4.9399999999999999E-2</v>
+      </c>
+      <c r="K4" s="37">
+        <v>0.36919999999999997</v>
+      </c>
+      <c r="L4" s="37">
+        <v>0.4839</v>
+      </c>
+      <c r="M4" s="37">
+        <v>0.44629999999999997</v>
+      </c>
+      <c r="N4" s="37">
+        <v>0.86839999999999995</v>
+      </c>
+      <c r="O4" s="38">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="B5" s="39">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="C5" s="39">
+        <v>0.87629999999999997</v>
+      </c>
+      <c r="D5" s="39">
+        <v>0.60940000000000005</v>
+      </c>
+      <c r="E5" s="39">
+        <v>7.7299999999999994E-2</v>
+      </c>
+      <c r="F5" s="39">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G5" s="39">
+        <v>0.4415</v>
+      </c>
+      <c r="H5" s="39">
+        <v>0.3427</v>
+      </c>
+      <c r="I5" s="39">
+        <v>0.59670000000000001</v>
+      </c>
+      <c r="J5" s="39">
+        <v>7.51E-2</v>
+      </c>
+      <c r="K5" s="39">
+        <v>0.32040000000000002</v>
+      </c>
+      <c r="L5" s="39">
+        <v>0.37969999999999998</v>
+      </c>
+      <c r="M5" s="39">
+        <v>0.31259999999999999</v>
+      </c>
+      <c r="N5" s="39">
+        <v>4.3299999999999998E-2</v>
+      </c>
+      <c r="O5" s="40">
+        <v>0.21809999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="B6" s="41">
+        <v>1.12E-2</v>
+      </c>
+      <c r="C6" s="41">
+        <v>0.12609999999999999</v>
+      </c>
+      <c r="D6" s="41">
+        <v>0.51890000000000003</v>
+      </c>
+      <c r="E6" s="41">
+        <v>0.41649999999999998</v>
+      </c>
+      <c r="F6" s="41">
+        <v>0.4244</v>
+      </c>
+      <c r="G6" s="41">
+        <v>0.38219999999999998</v>
+      </c>
+      <c r="H6" s="41">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="I6" s="41">
+        <v>0.84689999999999999</v>
+      </c>
+      <c r="J6" s="41">
+        <v>5.33E-2</v>
+      </c>
+      <c r="K6" s="41">
+        <v>1.0193000000000001</v>
+      </c>
+      <c r="L6" s="41">
+        <v>0.61550000000000005</v>
+      </c>
+      <c r="M6" s="41">
+        <v>0.98680000000000001</v>
+      </c>
+      <c r="N6" s="41">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="O6" s="42">
+        <v>1.17E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="B7" s="43">
+        <v>0.4113</v>
+      </c>
+      <c r="C7" s="43">
+        <v>0.84450000000000003</v>
+      </c>
+      <c r="D7" s="43">
+        <v>0.92810000000000004</v>
+      </c>
+      <c r="E7" s="43">
+        <v>0.92620000000000002</v>
+      </c>
+      <c r="F7" s="43">
+        <v>0.57579999999999998</v>
+      </c>
+      <c r="G7" s="43">
+        <v>0.46789999999999998</v>
+      </c>
+      <c r="H7" s="43">
+        <v>0.80210000000000004</v>
+      </c>
+      <c r="I7" s="43">
+        <v>1.0057</v>
+      </c>
+      <c r="J7" s="43">
+        <v>0.83540000000000003</v>
+      </c>
+      <c r="K7" s="43">
+        <v>0.4173</v>
+      </c>
+      <c r="L7" s="43">
+        <v>0.96519999999999995</v>
+      </c>
+      <c r="M7" s="43">
+        <v>0.51780000000000004</v>
+      </c>
+      <c r="N7" s="43">
+        <v>0.81520000000000004</v>
+      </c>
+      <c r="O7" s="44">
+        <v>0.21970000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="B8" s="45">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="C8" s="45">
+        <v>0.34789999999999999</v>
+      </c>
+      <c r="D8" s="45">
+        <v>0.1171</v>
+      </c>
+      <c r="E8" s="45">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="F8" s="45">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="G8" s="45">
+        <v>0.51129999999999998</v>
+      </c>
+      <c r="H8" s="45">
+        <v>8.3599999999999994E-2</v>
+      </c>
+      <c r="I8" s="45">
+        <v>0.80269999999999997</v>
+      </c>
+      <c r="J8" s="45">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="K8" s="45">
+        <v>0.3296</v>
+      </c>
+      <c r="L8" s="45">
+        <v>0.77990000000000004</v>
+      </c>
+      <c r="M8" s="45">
+        <v>0.29749999999999999</v>
+      </c>
+      <c r="N8" s="45">
+        <v>6.5299999999999997E-2</v>
+      </c>
+      <c r="O8" s="46">
+        <v>0.26579999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H10" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="13"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="11"/>
-    </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="13"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="11"/>
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6.6225124959576706E-2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.61881514010194805</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1.6347989883004101E-2</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1.1178235493982801E-2</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0.41128551861353002</v>
+      </c>
+      <c r="H11" s="11">
+        <v>2.5966862137770701E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="13"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="11"/>
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.33061324554751997</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.58761063110676703</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.876273721691745</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.12610118972802201</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0.84451617033304205</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0.34787221257796602</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="13"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="11"/>
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.41886387925431101</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.54683519144140802</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.60936795919082498</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.51888455220311103</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0.92811381976317897</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0.117144834533319</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="13"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="11"/>
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.73074475229926095</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.482119508817688</v>
+      </c>
+      <c r="E14" s="5">
+        <v>7.7299330333445299E-2</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.41648763304756098</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0.92618166088133702</v>
+      </c>
+      <c r="H14" s="11">
+        <v>1.5741522728162101E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="13"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="11"/>
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3.9736164584284001E-2</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2.23753114222145E-3</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2.4759724199063201E-3</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.42442038054964198</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0.57583799773840905</v>
+      </c>
+      <c r="H15" s="11">
+        <v>1.1238296525258799E-3</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="13"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="11"/>
+      <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="1">
+        <v>9.9636080901766705E-2</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.3002812201176</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.44154795272863001</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.38224544954334799</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0.467855983303965</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0.51129685475720899</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="13"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="11"/>
+      <c r="A17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.30555896896170998</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.220796800536256</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.34273266373509897</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1.6849469393969401E-2</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0.80207673397527102</v>
+      </c>
+      <c r="H17" s="11">
+        <v>8.3557084326203193E-2</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="13"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="11"/>
+      <c r="A18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.29522146810641497</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.61490992041478099</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.59667395032842496</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.84690519652235496</v>
+      </c>
+      <c r="G18" s="9">
+        <v>1.0056803967588599</v>
+      </c>
+      <c r="H18" s="11">
+        <v>0.80272494014182105</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="13"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="11"/>
+      <c r="A19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.40967747091093998</v>
+      </c>
+      <c r="D19" s="3">
+        <v>4.93615335741312E-2</v>
+      </c>
+      <c r="E19" s="5">
+        <v>7.5060611423136706E-2</v>
+      </c>
+      <c r="F19" s="7">
+        <v>5.3349459021998002E-2</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0.83537027035042999</v>
+      </c>
+      <c r="H19" s="11">
+        <v>2.0751052693414899E-3</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="13"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="11"/>
+      <c r="A20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.312866167848105</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.36919882166698498</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.32044779172975002</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1.01926877470356</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0.41730594570108798</v>
+      </c>
+      <c r="H20" s="11">
+        <v>0.32964773522541801</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="13"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="11"/>
+      <c r="A21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.673063017606508</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.48391674975244903</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0.37967438937929698</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.61551986182630103</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0.96518223885221099</v>
+      </c>
+      <c r="H21" s="11">
+        <v>0.77989454444137896</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="13"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="11"/>
+      <c r="A22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="1">
+        <v>9.5712795892028399E-2</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.44634237725270698</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0.31255665386579601</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.98678976939878205</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0.517815470814041</v>
+      </c>
+      <c r="H22" s="11">
+        <v>0.297478016852251</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="13"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="11"/>
+      <c r="A23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.174295602147962</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.86844583111990603</v>
+      </c>
+      <c r="E23" s="5">
+        <v>4.3268390080787603E-2</v>
+      </c>
+      <c r="F23" s="7">
+        <v>8.3521584494051695E-3</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0.81524617305381997</v>
+      </c>
+      <c r="H23" s="11">
+        <v>6.5292475138674894E-2</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="13"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="11"/>
+      <c r="A24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4.0424970068182499E-3</v>
+      </c>
+      <c r="D24" s="3">
+        <v>5.7965913592618802E-2</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0.218104991549528</v>
+      </c>
+      <c r="F24" s="7">
+        <v>1.17388410353965E-2</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0.21974386864794401</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0.26584607245743602</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
@@ -2058,56 +3845,57 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:H24"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40:H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7" style="1" customWidth="1"/>
+    <col min="1" max="15" width="14.140625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
         <v>11</v>
       </c>
       <c r="K1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="L1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="M1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N1" t="s">
         <v>13</v>
@@ -2115,215 +3903,736 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:15" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="54">
+        <v>6.6199999999999995E-2</v>
+      </c>
+      <c r="C3" s="55">
+        <v>0.80430000000000001</v>
+      </c>
+      <c r="D3" s="55">
+        <v>0.3306</v>
+      </c>
+      <c r="E3" s="55">
+        <v>0.41889999999999999</v>
+      </c>
+      <c r="F3" s="55">
+        <v>0.73070000000000002</v>
+      </c>
+      <c r="G3" s="55">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="H3" s="55">
+        <v>0.30559999999999998</v>
+      </c>
+      <c r="I3" s="55">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="J3" s="55">
+        <v>0.40970000000000001</v>
+      </c>
+      <c r="K3" s="55">
+        <v>0.67310000000000003</v>
+      </c>
+      <c r="L3" s="55">
+        <v>9.5699999999999993E-2</v>
+      </c>
+      <c r="M3" s="55">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="N3" s="55">
+        <v>0.17430000000000001</v>
+      </c>
+      <c r="O3" s="55">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="B4" s="56">
+        <v>0.61880000000000002</v>
+      </c>
+      <c r="C4" s="57">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D4" s="57">
+        <v>0.58760000000000001</v>
+      </c>
+      <c r="E4" s="57">
+        <v>0.54679999999999995</v>
+      </c>
+      <c r="F4" s="57">
+        <v>0.48209999999999997</v>
+      </c>
+      <c r="G4" s="57">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="H4" s="57">
+        <v>0.2208</v>
+      </c>
+      <c r="I4" s="57">
+        <v>0.12429999999999999</v>
+      </c>
+      <c r="J4" s="57">
+        <v>4.9399999999999999E-2</v>
+      </c>
+      <c r="K4" s="57">
+        <v>0.4839</v>
+      </c>
+      <c r="L4" s="57">
+        <v>0.44629999999999997</v>
+      </c>
+      <c r="M4" s="57">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="N4" s="57">
+        <v>0.86839999999999995</v>
+      </c>
+      <c r="O4" s="57">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="B5" s="58">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="C5" s="59">
+        <v>0.53049999999999997</v>
+      </c>
+      <c r="D5" s="59">
+        <v>0.87629999999999997</v>
+      </c>
+      <c r="E5" s="59">
+        <v>0.60940000000000005</v>
+      </c>
+      <c r="F5" s="59">
+        <v>7.7299999999999994E-2</v>
+      </c>
+      <c r="G5" s="59">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="H5" s="59">
+        <v>0.3427</v>
+      </c>
+      <c r="I5" s="59">
+        <v>0.23980000000000001</v>
+      </c>
+      <c r="J5" s="59">
+        <v>7.51E-2</v>
+      </c>
+      <c r="K5" s="59">
+        <v>0.37969999999999998</v>
+      </c>
+      <c r="L5" s="59">
+        <v>0.31259999999999999</v>
+      </c>
+      <c r="M5" s="59">
+        <v>1.9699999999999999E-2</v>
+      </c>
+      <c r="N5" s="59">
+        <v>4.3299999999999998E-2</v>
+      </c>
+      <c r="O5" s="59">
+        <v>0.21809999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="B6" s="60">
+        <v>1.12E-2</v>
+      </c>
+      <c r="C6" s="61">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="D6" s="61">
+        <v>0.12609999999999999</v>
+      </c>
+      <c r="E6" s="61">
+        <v>0.51890000000000003</v>
+      </c>
+      <c r="F6" s="61">
+        <v>0.41649999999999998</v>
+      </c>
+      <c r="G6" s="61">
+        <v>0.4244</v>
+      </c>
+      <c r="H6" s="61">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="I6" s="61">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="J6" s="61">
+        <v>5.33E-2</v>
+      </c>
+      <c r="K6" s="61">
+        <v>0.61550000000000005</v>
+      </c>
+      <c r="L6" s="61">
+        <v>0.98680000000000001</v>
+      </c>
+      <c r="M6" s="61">
+        <v>6.54E-2</v>
+      </c>
+      <c r="N6" s="61">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="O6" s="61">
+        <v>1.17E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="B7" s="62">
+        <v>0.4113</v>
+      </c>
+      <c r="C7" s="63">
+        <v>0.93530000000000002</v>
+      </c>
+      <c r="D7" s="63">
+        <v>0.84450000000000003</v>
+      </c>
+      <c r="E7" s="63">
+        <v>0.92810000000000004</v>
+      </c>
+      <c r="F7" s="63">
+        <v>0.92620000000000002</v>
+      </c>
+      <c r="G7" s="63">
+        <v>0.57579999999999998</v>
+      </c>
+      <c r="H7" s="63">
+        <v>0.80210000000000004</v>
+      </c>
+      <c r="I7" s="63">
+        <v>0.62139999999999995</v>
+      </c>
+      <c r="J7" s="63">
+        <v>0.83540000000000003</v>
+      </c>
+      <c r="K7" s="63">
+        <v>0.96519999999999995</v>
+      </c>
+      <c r="L7" s="63">
+        <v>0.51780000000000004</v>
+      </c>
+      <c r="M7" s="63">
+        <v>0.28760000000000002</v>
+      </c>
+      <c r="N7" s="63">
+        <v>0.81520000000000004</v>
+      </c>
+      <c r="O7" s="63">
+        <v>0.21970000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B8" s="64">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="C8" s="65">
+        <v>0.96040000000000003</v>
+      </c>
+      <c r="D8" s="65">
+        <v>0.34789999999999999</v>
+      </c>
+      <c r="E8" s="65">
+        <v>0.1171</v>
+      </c>
+      <c r="F8" s="65">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="G8" s="65">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="H8" s="65">
+        <v>8.3599999999999994E-2</v>
+      </c>
+      <c r="I8" s="65">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="J8" s="65">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="K8" s="65">
+        <v>0.77990000000000004</v>
+      </c>
+      <c r="L8" s="65">
+        <v>0.29749999999999999</v>
+      </c>
+      <c r="M8" s="65">
+        <v>0.26269999999999999</v>
+      </c>
+      <c r="N8" s="65">
+        <v>6.5299999999999997E-2</v>
+      </c>
+      <c r="O8" s="65">
+        <v>0.26579999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H10" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="11"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="11"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="11"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="11"/>
+    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6.6225124959576706E-2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.61881514010194805</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1.6347989883004101E-2</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1.1178235493982801E-2</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0.41128551861353002</v>
+      </c>
+      <c r="H11" s="11">
+        <v>2.5966862137770701E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.80428010771091896</v>
+      </c>
+      <c r="D12" s="3">
+        <v>9.3043166064454993E-2</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.530502564300395</v>
+      </c>
+      <c r="F12" s="7">
+        <v>9.7511793375244099E-2</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0.93527943946683101</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0.96038944846968499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.33061324554751997</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.58761063110676703</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.876273721691745</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.12610118972802201</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0.84451617033304205</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0.34787221257796602</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.41886387925431101</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.54683519144140802</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.60936795919082498</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.51888455220311103</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0.92811381976317897</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0.117144834533319</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.73074475229926095</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.482119508817688</v>
+      </c>
+      <c r="E15" s="5">
+        <v>7.7299330333445299E-2</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.41648763304756098</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0.92618166088133702</v>
+      </c>
+      <c r="H15" s="11">
+        <v>1.5741522728162101E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3.9736164584284001E-2</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2.23753114222145E-3</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2.4759724199063201E-3</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.42442038054964198</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0.57583799773840905</v>
+      </c>
+      <c r="H16" s="11">
+        <v>1.1238296525258799E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.30555896896170998</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.220796800536256</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.34273266373509897</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1.6849469393969401E-2</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0.80207673397527102</v>
+      </c>
+      <c r="H17" s="11">
+        <v>8.3557084326203193E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.188669282824656</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.12432946611666799</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.23980199199243199</v>
+      </c>
+      <c r="F18" s="7">
+        <v>8.1068674348867605E-3</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0.62139200244320303</v>
+      </c>
+      <c r="H18" s="11">
+        <v>2.1611821115451102E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.40967747091093998</v>
+      </c>
+      <c r="D19" s="3">
+        <v>4.93615335741312E-2</v>
+      </c>
+      <c r="E19" s="5">
+        <v>7.5060611423136706E-2</v>
+      </c>
+      <c r="F19" s="7">
+        <v>5.3349459021998002E-2</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0.83537027035042999</v>
+      </c>
+      <c r="H19" s="11">
+        <v>2.0751052693414899E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.673063017606508</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.48391674975244903</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.37967438937929698</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.61551986182630103</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0.96518223885221099</v>
+      </c>
+      <c r="H20" s="11">
+        <v>0.77989454444137896</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="1">
+        <v>9.5712795892028399E-2</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.44634237725270698</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0.31255665386579601</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.98678976939878205</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0.517815470814041</v>
+      </c>
+      <c r="H21" s="11">
+        <v>0.297478016852251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="1">
+        <v>4.6121189181980403E-3</v>
+      </c>
+      <c r="D22" s="3">
+        <v>7.7677111137565303E-3</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1.9659043514537101E-2</v>
+      </c>
+      <c r="F22" s="7">
+        <v>6.5379185175656995E-2</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0.28757918915574399</v>
+      </c>
+      <c r="H22" s="11">
+        <v>0.262666295888273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.174295602147962</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.86844583111990603</v>
+      </c>
+      <c r="E23" s="5">
+        <v>4.3268390080787603E-2</v>
+      </c>
+      <c r="F23" s="7">
+        <v>8.3521584494051695E-3</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0.81524617305381997</v>
+      </c>
+      <c r="H23" s="11">
+        <v>6.5292475138674894E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4.0424970068182499E-3</v>
+      </c>
+      <c r="D24" s="3">
+        <v>5.7965913592618802E-2</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0.218104991549528</v>
+      </c>
+      <c r="F24" s="7">
+        <v>1.17388410353965E-2</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0.21974386864794401</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0.26584607245743602</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="13"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2332,22 +4641,858 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
+    <col min="2" max="16" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="P2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+    </row>
+    <row r="3" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="67">
+        <v>0.76239999999999997</v>
+      </c>
+      <c r="C3" s="67">
+        <v>8.2900000000000001E-2</v>
+      </c>
+      <c r="D3" s="67">
+        <v>6.6199999999999995E-2</v>
+      </c>
+      <c r="E3" s="67">
+        <v>0.3306</v>
+      </c>
+      <c r="F3" s="67">
+        <v>0.41889999999999999</v>
+      </c>
+      <c r="G3" s="67">
+        <v>0.73070000000000002</v>
+      </c>
+      <c r="H3" s="68">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="I3" s="69">
+        <v>0.30559999999999998</v>
+      </c>
+      <c r="J3" s="67">
+        <v>0.40970000000000001</v>
+      </c>
+      <c r="K3" s="67">
+        <v>0.31290000000000001</v>
+      </c>
+      <c r="L3" s="67">
+        <v>0.67310000000000003</v>
+      </c>
+      <c r="M3" s="67">
+        <v>9.5699999999999993E-2</v>
+      </c>
+      <c r="N3" s="67">
+        <v>0.17430000000000001</v>
+      </c>
+      <c r="O3" s="67">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="P3" s="69">
+        <v>8.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="70">
+        <v>0.44619999999999999</v>
+      </c>
+      <c r="C4" s="70">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="D4" s="70">
+        <v>0.61880000000000002</v>
+      </c>
+      <c r="E4" s="70">
+        <v>0.58760000000000001</v>
+      </c>
+      <c r="F4" s="70">
+        <v>0.54679999999999995</v>
+      </c>
+      <c r="G4" s="70">
+        <v>0.48209999999999997</v>
+      </c>
+      <c r="H4" s="71">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="I4" s="72">
+        <v>0.2208</v>
+      </c>
+      <c r="J4" s="70">
+        <v>4.9399999999999999E-2</v>
+      </c>
+      <c r="K4" s="70">
+        <v>0.36919999999999997</v>
+      </c>
+      <c r="L4" s="70">
+        <v>0.4839</v>
+      </c>
+      <c r="M4" s="70">
+        <v>0.44629999999999997</v>
+      </c>
+      <c r="N4" s="70">
+        <v>0.86839999999999995</v>
+      </c>
+      <c r="O4" s="70">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="P4" s="72">
+        <v>0.316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="73">
+        <v>0.78549999999999998</v>
+      </c>
+      <c r="C5" s="73">
+        <v>0.5202</v>
+      </c>
+      <c r="D5" s="73">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="E5" s="73">
+        <v>0.87629999999999997</v>
+      </c>
+      <c r="F5" s="73">
+        <v>0.60940000000000005</v>
+      </c>
+      <c r="G5" s="73">
+        <v>7.7299999999999994E-2</v>
+      </c>
+      <c r="H5" s="74">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="I5" s="75">
+        <v>0.3427</v>
+      </c>
+      <c r="J5" s="73">
+        <v>7.51E-2</v>
+      </c>
+      <c r="K5" s="73">
+        <v>0.32040000000000002</v>
+      </c>
+      <c r="L5" s="73">
+        <v>0.37969999999999998</v>
+      </c>
+      <c r="M5" s="73">
+        <v>0.31259999999999999</v>
+      </c>
+      <c r="N5" s="73">
+        <v>4.3299999999999998E-2</v>
+      </c>
+      <c r="O5" s="73">
+        <v>0.21809999999999999</v>
+      </c>
+      <c r="P5" s="75">
+        <v>0.25030000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="76">
+        <v>0.29160000000000003</v>
+      </c>
+      <c r="C6" s="76">
+        <v>7.2300000000000003E-2</v>
+      </c>
+      <c r="D6" s="76">
+        <v>1.12E-2</v>
+      </c>
+      <c r="E6" s="76">
+        <v>0.12609999999999999</v>
+      </c>
+      <c r="F6" s="76">
+        <v>0.51890000000000003</v>
+      </c>
+      <c r="G6" s="76">
+        <v>0.41649999999999998</v>
+      </c>
+      <c r="H6" s="77">
+        <v>0.4244</v>
+      </c>
+      <c r="I6" s="78">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="J6" s="76">
+        <v>5.33E-2</v>
+      </c>
+      <c r="K6" s="76">
+        <v>1.0193000000000001</v>
+      </c>
+      <c r="L6" s="76">
+        <v>0.61550000000000005</v>
+      </c>
+      <c r="M6" s="76">
+        <v>0.98680000000000001</v>
+      </c>
+      <c r="N6" s="76">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="O6" s="76">
+        <v>1.17E-2</v>
+      </c>
+      <c r="P6" s="78">
+        <v>1.0134000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="79">
+        <v>0.82579999999999998</v>
+      </c>
+      <c r="C7" s="79">
+        <v>0.76390000000000002</v>
+      </c>
+      <c r="D7" s="79">
+        <v>0.4113</v>
+      </c>
+      <c r="E7" s="79">
+        <v>0.84450000000000003</v>
+      </c>
+      <c r="F7" s="79">
+        <v>0.92810000000000004</v>
+      </c>
+      <c r="G7" s="79">
+        <v>0.92620000000000002</v>
+      </c>
+      <c r="H7" s="80">
+        <v>0.57579999999999998</v>
+      </c>
+      <c r="I7" s="81">
+        <v>0.80210000000000004</v>
+      </c>
+      <c r="J7" s="79">
+        <v>0.83540000000000003</v>
+      </c>
+      <c r="K7" s="79">
+        <v>0.4173</v>
+      </c>
+      <c r="L7" s="79">
+        <v>0.96519999999999995</v>
+      </c>
+      <c r="M7" s="79">
+        <v>0.51780000000000004</v>
+      </c>
+      <c r="N7" s="79">
+        <v>0.81520000000000004</v>
+      </c>
+      <c r="O7" s="79">
+        <v>0.21970000000000001</v>
+      </c>
+      <c r="P7" s="81">
+        <v>0.88239999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="82">
+        <v>4.5699999999999998E-2</v>
+      </c>
+      <c r="C8" s="82">
+        <v>0.45350000000000001</v>
+      </c>
+      <c r="D8" s="82">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E8" s="82">
+        <v>0.34789999999999999</v>
+      </c>
+      <c r="F8" s="82">
+        <v>0.1171</v>
+      </c>
+      <c r="G8" s="82">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="H8" s="83">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="I8" s="84">
+        <v>8.3599999999999994E-2</v>
+      </c>
+      <c r="J8" s="82">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="K8" s="82">
+        <v>0.3296</v>
+      </c>
+      <c r="L8" s="82">
+        <v>0.77990000000000004</v>
+      </c>
+      <c r="M8" s="82">
+        <v>0.29749999999999999</v>
+      </c>
+      <c r="N8" s="82">
+        <v>6.5299999999999997E-2</v>
+      </c>
+      <c r="O8" s="82">
+        <v>0.26579999999999998</v>
+      </c>
+      <c r="P8" s="84">
+        <v>0.45619999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.762384490029694</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.44624975588118598</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.78551996118716705</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.29160072506103601</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0.82577386681059695</v>
+      </c>
+      <c r="H11" s="11">
+        <v>4.5710095337786E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="1">
+        <v>8.2901279432195593E-2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>9.0782211164155292E-3</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.52024738694317496</v>
+      </c>
+      <c r="F12" s="7">
+        <v>7.2269282640789106E-2</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0.76388269721491497</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0.45347930983877699</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="1">
+        <v>6.6225124959576706E-2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.61881514010194805</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1.6347989883004101E-2</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1.1178235493982801E-2</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0.41128551861353002</v>
+      </c>
+      <c r="H13" s="11">
+        <v>2.5966862137770701E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.33061324554751997</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.58761063110676703</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.876273721691745</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.12610118972802201</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0.84451617033304205</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0.34787221257796602</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.41886387925431101</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.54683519144140802</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.60936795919082498</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.51888455220311103</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0.92811381976317897</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0.117144834533319</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.73074475229926095</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.482119508817688</v>
+      </c>
+      <c r="E16" s="5">
+        <v>7.7299330333445299E-2</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.41648763304756098</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0.92618166088133702</v>
+      </c>
+      <c r="H16" s="11">
+        <v>1.5741522728162101E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3.9736164584284001E-2</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2.23753114222145E-3</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2.4759724199063201E-3</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.42442038054964198</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0.57583799773840905</v>
+      </c>
+      <c r="H17" s="11">
+        <v>1.1238296525258799E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.30555896896170998</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.220796800536256</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.34273266373509897</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1.6849469393969401E-2</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0.80207673397527102</v>
+      </c>
+      <c r="H18" s="11">
+        <v>8.3557084326203193E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.40967747091093998</v>
+      </c>
+      <c r="D19" s="3">
+        <v>4.93615335741312E-2</v>
+      </c>
+      <c r="E19" s="5">
+        <v>7.5060611423136706E-2</v>
+      </c>
+      <c r="F19" s="7">
+        <v>5.3349459021998002E-2</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0.83537027035042999</v>
+      </c>
+      <c r="H19" s="11">
+        <v>2.0751052693414899E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.312866167848105</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.36919882166698498</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.32044779172975002</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1.01926877470356</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0.41730594570108798</v>
+      </c>
+      <c r="H20" s="11">
+        <v>0.32964773522541801</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.673063017606508</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.48391674975244903</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0.37967438937929698</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.61551986182630103</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0.96518223885221099</v>
+      </c>
+      <c r="H21" s="11">
+        <v>0.77989454444137896</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="1">
+        <v>9.5712795892028399E-2</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.44634237725270698</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0.31255665386579601</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.98678976939878205</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0.517815470814041</v>
+      </c>
+      <c r="H22" s="11">
+        <v>0.297478016852251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.174295602147962</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.86844583111990603</v>
+      </c>
+      <c r="E23" s="5">
+        <v>4.3268390080787603E-2</v>
+      </c>
+      <c r="F23" s="7">
+        <v>8.3521584494051695E-3</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0.81524617305381997</v>
+      </c>
+      <c r="H23" s="11">
+        <v>6.5292475138674894E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4.0424970068182499E-3</v>
+      </c>
+      <c r="D24" s="3">
+        <v>5.7965913592618802E-2</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0.218104991549528</v>
+      </c>
+      <c r="F24" s="7">
+        <v>1.17388410353965E-2</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0.21974386864794401</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0.26584607245743602</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="1">
+        <v>8.8957362296602296E-3</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.31603437363464698</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0.250267714639267</v>
+      </c>
+      <c r="F25" s="7">
+        <v>1.01343777505961</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0.88243598341370999</v>
+      </c>
+      <c r="H25" s="11">
+        <v>0.45617091532496501</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
+    <col min="2" max="17" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
@@ -2395,212 +5540,819 @@
       <c r="Q1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="R1" s="85"/>
+    </row>
+    <row r="2" spans="1:18" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="P2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" s="66"/>
+    </row>
+    <row r="3" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="48">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="C3" s="48">
+        <v>0.76239999999999997</v>
+      </c>
+      <c r="D3" s="48">
+        <v>6.6199999999999995E-2</v>
+      </c>
+      <c r="E3" s="48">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F3" s="48">
+        <v>0.62970000000000004</v>
+      </c>
+      <c r="G3" s="48">
+        <v>0.3306</v>
+      </c>
+      <c r="H3" s="48">
+        <v>0.41889999999999999</v>
+      </c>
+      <c r="I3" s="48">
+        <v>0.73070000000000002</v>
+      </c>
+      <c r="J3" s="48">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="K3" s="48">
+        <v>0.13450000000000001</v>
+      </c>
+      <c r="L3" s="48">
+        <v>0.93540000000000001</v>
+      </c>
+      <c r="M3" s="48">
+        <v>9.9599999999999994E-2</v>
+      </c>
+      <c r="N3" s="48">
+        <v>0.30559999999999998</v>
+      </c>
+      <c r="O3" s="48">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="P3" s="48">
+        <v>0.67310000000000003</v>
+      </c>
+      <c r="Q3" s="86">
+        <v>8.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="B4" s="37">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="C4" s="37">
+        <v>0.44619999999999999</v>
+      </c>
+      <c r="D4" s="37">
+        <v>0.61880000000000002</v>
+      </c>
+      <c r="E4" s="37">
+        <v>0.55710000000000004</v>
+      </c>
+      <c r="F4" s="37">
+        <v>0.27610000000000001</v>
+      </c>
+      <c r="G4" s="37">
+        <v>0.58760000000000001</v>
+      </c>
+      <c r="H4" s="37">
+        <v>0.54679999999999995</v>
+      </c>
+      <c r="I4" s="37">
+        <v>0.48209999999999997</v>
+      </c>
+      <c r="J4" s="37">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="K4" s="37">
+        <v>2.9499999999999998E-2</v>
+      </c>
+      <c r="L4" s="37">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="M4" s="37">
+        <v>0.30030000000000001</v>
+      </c>
+      <c r="N4" s="37">
+        <v>0.2208</v>
+      </c>
+      <c r="O4" s="37">
+        <v>0.12429999999999999</v>
+      </c>
+      <c r="P4" s="37">
+        <v>0.4839</v>
+      </c>
+      <c r="Q4" s="38">
+        <v>0.316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="B5" s="39">
+        <v>0.1095</v>
+      </c>
+      <c r="C5" s="39">
+        <v>0.78549999999999998</v>
+      </c>
+      <c r="D5" s="39">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="E5" s="39">
+        <v>0.31909999999999999</v>
+      </c>
+      <c r="F5" s="39">
+        <v>0.27510000000000001</v>
+      </c>
+      <c r="G5" s="39">
+        <v>0.87629999999999997</v>
+      </c>
+      <c r="H5" s="39">
+        <v>0.60940000000000005</v>
+      </c>
+      <c r="I5" s="39">
+        <v>7.7299999999999994E-2</v>
+      </c>
+      <c r="J5" s="39">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="K5" s="39">
+        <v>4.8800000000000003E-2</v>
+      </c>
+      <c r="L5" s="39">
+        <v>0.86770000000000003</v>
+      </c>
+      <c r="M5" s="39">
+        <v>0.4415</v>
+      </c>
+      <c r="N5" s="39">
+        <v>0.3427</v>
+      </c>
+      <c r="O5" s="39">
+        <v>0.23980000000000001</v>
+      </c>
+      <c r="P5" s="39">
+        <v>0.37969999999999998</v>
+      </c>
+      <c r="Q5" s="40">
+        <v>0.25030000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="B6" s="41">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="C6" s="41">
+        <v>0.29160000000000003</v>
+      </c>
+      <c r="D6" s="41">
+        <v>1.12E-2</v>
+      </c>
+      <c r="E6" s="41">
+        <v>0.38629999999999998</v>
+      </c>
+      <c r="F6" s="41">
+        <v>0.50580000000000003</v>
+      </c>
+      <c r="G6" s="41">
+        <v>0.12609999999999999</v>
+      </c>
+      <c r="H6" s="41">
+        <v>0.51890000000000003</v>
+      </c>
+      <c r="I6" s="41">
+        <v>0.41649999999999998</v>
+      </c>
+      <c r="J6" s="41">
+        <v>0.4244</v>
+      </c>
+      <c r="K6" s="41">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L6" s="41">
+        <v>0.1031</v>
+      </c>
+      <c r="M6" s="41">
+        <v>0.38219999999999998</v>
+      </c>
+      <c r="N6" s="41">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="O6" s="41">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="P6" s="41">
+        <v>0.61550000000000005</v>
+      </c>
+      <c r="Q6" s="42">
+        <v>1.0134000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="B7" s="43">
+        <v>0.59930000000000005</v>
+      </c>
+      <c r="C7" s="43">
+        <v>0.82579999999999998</v>
+      </c>
+      <c r="D7" s="43">
+        <v>0.4113</v>
+      </c>
+      <c r="E7" s="43">
+        <v>0.40089999999999998</v>
+      </c>
+      <c r="F7" s="43">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="G7" s="43">
+        <v>0.84450000000000003</v>
+      </c>
+      <c r="H7" s="43">
+        <v>0.92810000000000004</v>
+      </c>
+      <c r="I7" s="43">
+        <v>0.92620000000000002</v>
+      </c>
+      <c r="J7" s="43">
+        <v>0.57579999999999998</v>
+      </c>
+      <c r="K7" s="43">
+        <v>0.52810000000000001</v>
+      </c>
+      <c r="L7" s="43">
+        <v>0.93110000000000004</v>
+      </c>
+      <c r="M7" s="43">
+        <v>0.46789999999999998</v>
+      </c>
+      <c r="N7" s="43">
+        <v>0.80210000000000004</v>
+      </c>
+      <c r="O7" s="43">
+        <v>0.62139999999999995</v>
+      </c>
+      <c r="P7" s="43">
+        <v>0.96519999999999995</v>
+      </c>
+      <c r="Q7" s="44">
+        <v>0.88239999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B8" s="45">
+        <v>8.9499999999999996E-2</v>
+      </c>
+      <c r="C8" s="45">
+        <v>4.5699999999999998E-2</v>
+      </c>
+      <c r="D8" s="45">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E8" s="45">
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="F8" s="45">
+        <v>0.52070000000000005</v>
+      </c>
+      <c r="G8" s="45">
+        <v>0.34789999999999999</v>
+      </c>
+      <c r="H8" s="45">
+        <v>0.1171</v>
+      </c>
+      <c r="I8" s="45">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="J8" s="45">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="K8" s="45">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="L8" s="45">
+        <v>0.9415</v>
+      </c>
+      <c r="M8" s="45">
+        <v>0.51129999999999998</v>
+      </c>
+      <c r="N8" s="45">
+        <v>8.3599999999999994E-2</v>
+      </c>
+      <c r="O8" s="45">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="P8" s="45">
+        <v>0.77990000000000004</v>
+      </c>
+      <c r="Q8" s="46">
+        <v>0.45619999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H10" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="11"/>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5.5110130174900497E-3</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1.48061962856069E-2</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.109489747665395</v>
+      </c>
+      <c r="F11" s="7">
+        <v>3.5488708176194901E-4</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0.59933047406826501</v>
+      </c>
+      <c r="H11" s="11">
+        <v>8.9506884214993296E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.762384490029694</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.44624975588118598</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.78551996118716705</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.29160072506103601</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0.82577386681059695</v>
+      </c>
+      <c r="H12" s="11">
+        <v>4.5710095337786E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="1">
+        <v>6.6225124959576706E-2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.61881514010194805</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1.6347989883004101E-2</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1.1178235493982801E-2</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0.41128551861353002</v>
+      </c>
+      <c r="H13" s="11">
+        <v>2.5966862137770701E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4.6909601821964499E-4</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.55709022690988397</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.31905268296620898</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.38626808268009999</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0.40086356331380801</v>
+      </c>
+      <c r="H14" s="11">
+        <v>3.7601247708696897E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.62968209024807098</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.27612345357056201</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.27506746554800399</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.50579751917041205</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0.91176683140218995</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0.52071115419199898</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.33061324554751997</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.58761063110676703</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.876273721691745</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.12610118972802201</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0.84451617033304205</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0.34787221257796602</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="11"/>
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.41886387925431101</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.54683519144140802</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.60936795919082498</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.51888455220311103</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0.92811381976317897</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0.117144834533319</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="11"/>
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.73074475229926095</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.482119508817688</v>
+      </c>
+      <c r="E18" s="5">
+        <v>7.7299330333445299E-2</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.41648763304756098</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0.92618166088133702</v>
+      </c>
+      <c r="H18" s="11">
+        <v>1.5741522728162101E-2</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="11"/>
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3.9736164584284001E-2</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2.23753114222145E-3</v>
+      </c>
+      <c r="E19" s="5">
+        <v>2.4759724199063201E-3</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.42442038054964198</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0.57583799773840905</v>
+      </c>
+      <c r="H19" s="11">
+        <v>1.1238296525258799E-3</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="11"/>
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.13454666329068499</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2.94911061361013E-2</v>
+      </c>
+      <c r="E20" s="5">
+        <v>4.8848553701636398E-2</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1.49531455562934E-2</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0.52813323397358003</v>
+      </c>
+      <c r="H20" s="11">
+        <v>1.58741443458029E-2</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="11"/>
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.93544061609455698</v>
+      </c>
+      <c r="D21" s="3">
+        <v>9.3041646985444496E-2</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0.86765083167356505</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.103131155558812</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0.93107028189860797</v>
+      </c>
+      <c r="H21" s="11">
+        <v>0.94148592414781596</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="11"/>
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="1">
+        <v>9.9636080901766705E-2</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.3002812201176</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0.44154795272863001</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.38224544954334799</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0.467855983303965</v>
+      </c>
+      <c r="H22" s="11">
+        <v>0.51129685475720899</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="11"/>
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.30555896896170998</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.220796800536256</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.34273266373509897</v>
+      </c>
+      <c r="F23" s="7">
+        <v>1.6849469393969401E-2</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0.80207673397527102</v>
+      </c>
+      <c r="H23" s="11">
+        <v>8.3557084326203193E-2</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="11"/>
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.188669282824656</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.12432946611666799</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0.23980199199243199</v>
+      </c>
+      <c r="F24" s="7">
+        <v>8.1068674348867605E-3</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0.62139200244320303</v>
+      </c>
+      <c r="H24" s="11">
+        <v>2.1611821115451102E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.673063017606508</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.48391674975244903</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0.37967438937929698</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0.61551986182630103</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0.96518223885221099</v>
+      </c>
+      <c r="H25" s="11">
+        <v>0.77989454444137896</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="1">
+        <v>8.8957362296602296E-3</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.31603437363464698</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0.250267714639267</v>
+      </c>
+      <c r="F26" s="7">
+        <v>1.01343777505961</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0.88243598341370999</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0.45617091532496501</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
